--- a/src/test/resources/resourceFiles/WeaterWorldWide.xlsx
+++ b/src/test/resources/resourceFiles/WeaterWorldWide.xlsx
@@ -12,603 +12,597 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="197">
   <si>
     <t>Accra</t>
   </si>
   <si>
-    <t>Mon 01:39</t>
+    <t>Tue 19:19</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>28 °C</t>
+  </si>
+  <si>
+    <t>Edmonton *</t>
+  </si>
+  <si>
+    <t>Tue 13:19</t>
+  </si>
+  <si>
+    <t>15 °C</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Wed 00:49</t>
+  </si>
+  <si>
+    <t>29 °C</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>Tue 22:19</t>
+  </si>
+  <si>
+    <t>21 °C</t>
+  </si>
+  <si>
+    <t>Frankfurt *</t>
+  </si>
+  <si>
+    <t>Tue 21:19</t>
+  </si>
+  <si>
+    <t>22 °C</t>
+  </si>
+  <si>
+    <t>New Orleans *</t>
+  </si>
+  <si>
+    <t>Tue 14:19</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>Wed 04:49</t>
+  </si>
+  <si>
+    <t>14 °C</t>
+  </si>
+  <si>
+    <t>Guatemala City</t>
+  </si>
+  <si>
+    <t>27 °C</t>
+  </si>
+  <si>
+    <t>New York *</t>
+  </si>
+  <si>
+    <t>Tue 15:19</t>
+  </si>
+  <si>
+    <t>24 °C</t>
+  </si>
+  <si>
+    <t>Algiers</t>
+  </si>
+  <si>
+    <t>Tue 20:19</t>
+  </si>
+  <si>
+    <t>19 °C</t>
+  </si>
+  <si>
+    <t>Halifax *</t>
+  </si>
+  <si>
+    <t>Tue 16:19</t>
+  </si>
+  <si>
+    <t>7 °C</t>
+  </si>
+  <si>
+    <t>Oslo *</t>
+  </si>
+  <si>
+    <t>Almaty</t>
+  </si>
+  <si>
+    <t>Wed 00:19</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>Wed 02:19</t>
+  </si>
+  <si>
+    <t>25 °C</t>
+  </si>
+  <si>
+    <t>Ottawa *</t>
+  </si>
+  <si>
+    <t>20 °C</t>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>Harare</t>
+  </si>
+  <si>
+    <t>18 °C</t>
+  </si>
+  <si>
+    <t>Paris *</t>
+  </si>
+  <si>
+    <t>Amsterdam *</t>
+  </si>
+  <si>
+    <t>16 °C</t>
+  </si>
+  <si>
+    <t>Havana *</t>
+  </si>
+  <si>
+    <t>30 °C</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>Wed 03:19</t>
+  </si>
+  <si>
+    <t>Anadyr</t>
+  </si>
+  <si>
+    <t>Wed 07:19</t>
+  </si>
+  <si>
+    <t>-8 °C</t>
+  </si>
+  <si>
+    <t>Helsinki *</t>
+  </si>
+  <si>
+    <t>Philadelphia *</t>
+  </si>
+  <si>
+    <t>Anchorage *</t>
+  </si>
+  <si>
+    <t>Tue 11:19</t>
+  </si>
+  <si>
+    <t>4 °C</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Tue 12:19</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>Tue 09:19</t>
+  </si>
+  <si>
     <t>26 °C</t>
   </si>
   <si>
+    <t>Prague *</t>
+  </si>
+  <si>
+    <t>Antananarivo</t>
+  </si>
+  <si>
+    <t>17 °C</t>
+  </si>
+  <si>
+    <t>Houston *</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>9 °C</t>
+  </si>
+  <si>
+    <t>Asuncion</t>
+  </si>
+  <si>
+    <t>Indianapolis *</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Athens *</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>31 °C</t>
+  </si>
+  <si>
+    <t>Atlanta *</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>10 °C</t>
+  </si>
+  <si>
+    <t>Rome *</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Salt Lake City *</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>Jerusalem *</t>
+  </si>
+  <si>
+    <t>San Francisco *</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>Barcelona *</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Wed 01:04</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Beirut *</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>32 °C</t>
+  </si>
+  <si>
+    <t>Belgrade *</t>
+  </si>
+  <si>
+    <t>Kinshasa</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Kiritimati</t>
+  </si>
+  <si>
+    <t>Wed 09:19</t>
+  </si>
+  <si>
+    <t>Seattle *</t>
+  </si>
+  <si>
+    <t>13 °C</t>
+  </si>
+  <si>
+    <t>Berlin *</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Wed 04:19</t>
+  </si>
+  <si>
+    <t>11 °C</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Boston *</t>
+  </si>
+  <si>
+    <t>Kuwait City</t>
+  </si>
+  <si>
+    <t>35 °C</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>Kyiv *</t>
+  </si>
+  <si>
+    <t>Sofia *</t>
+  </si>
+  <si>
+    <t>12 °C</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Wed 05:19</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>St. John's *</t>
+  </si>
+  <si>
+    <t>Tue 16:49</t>
+  </si>
+  <si>
+    <t>1 °C</t>
+  </si>
+  <si>
+    <t>Brussels *</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>Stockholm *</t>
+  </si>
+  <si>
+    <t>Bucharest *</t>
+  </si>
+  <si>
+    <t>Lahore</t>
+  </si>
+  <si>
+    <t>Suva</t>
+  </si>
+  <si>
+    <t>Budapest *</t>
+  </si>
+  <si>
+    <t>Las Vegas *</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>Cairo *</t>
+  </si>
+  <si>
+    <t>Lisbon *</t>
+  </si>
+  <si>
+    <t>Tallinn *</t>
+  </si>
+  <si>
+    <t>8 °C</t>
+  </si>
+  <si>
+    <t>Calgary *</t>
+  </si>
+  <si>
+    <t>London *</t>
+  </si>
+  <si>
+    <t>Tashkent</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Los Angeles *</t>
+  </si>
+  <si>
+    <t>Tegucigalpa</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>Madrid *</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>Tue 22:49</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Casablanca *</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Toronto *</t>
+  </si>
+  <si>
+    <t>Chicago *</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Vancouver *</t>
+  </si>
+  <si>
+    <t>Copenhagen *</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Vienna *</t>
+  </si>
+  <si>
+    <t>Dallas *</t>
+  </si>
+  <si>
+    <t>Miami *</t>
+  </si>
+  <si>
+    <t>Warsaw *</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Minneapolis *</t>
+  </si>
+  <si>
+    <t>Washington DC *</t>
+  </si>
+  <si>
+    <t>Denver *</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>Winnipeg *</t>
+  </si>
+  <si>
+    <t>6 °C</t>
+  </si>
+  <si>
+    <t>Detroit *</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>Wed 01:49</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Wed 01:19</t>
+  </si>
+  <si>
+    <t>Montréal *</t>
+  </si>
+  <si>
+    <t>Zagreb *</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Zürich *</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Tue 23:19</t>
+  </si>
+  <si>
+    <t>33 °C</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
     <t>Dublin *</t>
   </si>
   <si>
-    <t>Mon 02:39</t>
-  </si>
-  <si>
-    <t>16 °C</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>Mon 04:39</t>
-  </si>
-  <si>
-    <t>Addis Ababa</t>
-  </si>
-  <si>
-    <t>17 °C</t>
-  </si>
-  <si>
-    <t>Edmonton *</t>
-  </si>
-  <si>
-    <t>Sun 19:39</t>
-  </si>
-  <si>
-    <t>24 °C</t>
-  </si>
-  <si>
     <t>Nassau *</t>
-  </si>
-  <si>
-    <t>Sun 21:39</t>
-  </si>
-  <si>
-    <t>29 °C</t>
-  </si>
-  <si>
-    <t>Adelaide</t>
-  </si>
-  <si>
-    <t>Mon 11:09</t>
-  </si>
-  <si>
-    <t>14 °C</t>
-  </si>
-  <si>
-    <t>Frankfurt *</t>
-  </si>
-  <si>
-    <t>Mon 03:39</t>
-  </si>
-  <si>
-    <t>18 °C</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>Mon 07:09</t>
-  </si>
-  <si>
-    <t>28 °C</t>
-  </si>
-  <si>
-    <t>Algiers</t>
-  </si>
-  <si>
-    <t>27 °C</t>
-  </si>
-  <si>
-    <t>Guatemala City</t>
-  </si>
-  <si>
-    <t>21 °C</t>
-  </si>
-  <si>
-    <t>New Orleans *</t>
-  </si>
-  <si>
-    <t>Sun 20:39</t>
-  </si>
-  <si>
-    <t>34 °C</t>
-  </si>
-  <si>
-    <t>Almaty</t>
-  </si>
-  <si>
-    <t>Mon 07:39</t>
-  </si>
-  <si>
-    <t>23 °C</t>
-  </si>
-  <si>
-    <t>Halifax *</t>
-  </si>
-  <si>
-    <t>Sun 22:39</t>
-  </si>
-  <si>
-    <t>New York *</t>
-  </si>
-  <si>
-    <t>Amman</t>
-  </si>
-  <si>
-    <t>22 °C</t>
-  </si>
-  <si>
-    <t>Hanoi</t>
-  </si>
-  <si>
-    <t>Mon 08:39</t>
-  </si>
-  <si>
-    <t>30 °C</t>
-  </si>
-  <si>
-    <t>Oslo *</t>
-  </si>
-  <si>
-    <t>Amsterdam *</t>
-  </si>
-  <si>
-    <t>Harare</t>
-  </si>
-  <si>
-    <t>13 °C</t>
-  </si>
-  <si>
-    <t>Ottawa *</t>
-  </si>
-  <si>
-    <t>19 °C</t>
-  </si>
-  <si>
-    <t>Anadyr</t>
-  </si>
-  <si>
-    <t>Mon 13:39</t>
-  </si>
-  <si>
-    <t>12 °C</t>
-  </si>
-  <si>
-    <t>Havana *</t>
-  </si>
-  <si>
-    <t>Paris *</t>
-  </si>
-  <si>
-    <t>Anchorage *</t>
-  </si>
-  <si>
-    <t>Sun 17:39</t>
-  </si>
-  <si>
-    <t>Helsinki *</t>
-  </si>
-  <si>
-    <t>Perth</t>
-  </si>
-  <si>
-    <t>Mon 09:39</t>
-  </si>
-  <si>
-    <t>Ankara</t>
-  </si>
-  <si>
-    <t>20 °C</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>31 °C</t>
-  </si>
-  <si>
-    <t>Philadelphia *</t>
-  </si>
-  <si>
-    <t>Antananarivo</t>
-  </si>
-  <si>
-    <t>9 °C</t>
-  </si>
-  <si>
-    <t>Honolulu</t>
-  </si>
-  <si>
-    <t>Sun 15:39</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Sun 18:39</t>
-  </si>
-  <si>
-    <t>44 °C</t>
-  </si>
-  <si>
-    <t>Asuncion</t>
-  </si>
-  <si>
-    <t>Houston *</t>
-  </si>
-  <si>
-    <t>33 °C</t>
-  </si>
-  <si>
-    <t>Prague *</t>
-  </si>
-  <si>
-    <t>Athens *</t>
-  </si>
-  <si>
-    <t>Indianapolis *</t>
-  </si>
-  <si>
-    <t>Reykjavik</t>
-  </si>
-  <si>
-    <t>Atlanta *</t>
-  </si>
-  <si>
-    <t>Islamabad</t>
-  </si>
-  <si>
-    <t>Mon 06:39</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Auckland</t>
-  </si>
-  <si>
-    <t>Istanbul</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>32 °C</t>
-  </si>
-  <si>
-    <t>Baghdad</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>25 °C</t>
-  </si>
-  <si>
-    <t>Rome *</t>
-  </si>
-  <si>
-    <t>Bangkok</t>
-  </si>
-  <si>
-    <t>Jerusalem *</t>
-  </si>
-  <si>
-    <t>Salt Lake City *</t>
-  </si>
-  <si>
-    <t>38 °C</t>
-  </si>
-  <si>
-    <t>Barcelona *</t>
-  </si>
-  <si>
-    <t>Johannesburg</t>
-  </si>
-  <si>
-    <t>0 °C</t>
-  </si>
-  <si>
-    <t>San Francisco *</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Karachi</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>Beirut *</t>
-  </si>
-  <si>
-    <t>Kathmandu</t>
-  </si>
-  <si>
-    <t>Mon 07:24</t>
-  </si>
-  <si>
-    <t>San Salvador</t>
-  </si>
-  <si>
-    <t>Belgrade *</t>
-  </si>
-  <si>
-    <t>Kingston</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>Kinshasa</t>
-  </si>
-  <si>
-    <t>Santo Domingo</t>
-  </si>
-  <si>
-    <t>Berlin *</t>
-  </si>
-  <si>
-    <t>15 °C</t>
-  </si>
-  <si>
-    <t>Kiritimati</t>
-  </si>
-  <si>
-    <t>Mon 15:39</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Bogota</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Seattle *</t>
-  </si>
-  <si>
-    <t>Boston *</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur</t>
-  </si>
-  <si>
-    <t>Seoul</t>
-  </si>
-  <si>
-    <t>Mon 10:39</t>
-  </si>
-  <si>
-    <t>Brasilia</t>
-  </si>
-  <si>
-    <t>Kuwait City</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
-    <t>Mon 11:39</t>
-  </si>
-  <si>
-    <t>Kyiv *</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Brussels *</t>
-  </si>
-  <si>
-    <t>La Paz</t>
-  </si>
-  <si>
-    <t>7 °C</t>
-  </si>
-  <si>
-    <t>Sofia *</t>
-  </si>
-  <si>
-    <t>Bucharest *</t>
-  </si>
-  <si>
-    <t>Lagos</t>
-  </si>
-  <si>
-    <t>St. John's *</t>
-  </si>
-  <si>
-    <t>Sun 23:09</t>
-  </si>
-  <si>
-    <t>Budapest *</t>
-  </si>
-  <si>
-    <t>Lahore</t>
-  </si>
-  <si>
-    <t>Stockholm *</t>
-  </si>
-  <si>
-    <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>Las Vegas *</t>
-  </si>
-  <si>
-    <t>40 °C</t>
-  </si>
-  <si>
-    <t>Suva</t>
-  </si>
-  <si>
-    <t>Cairo *</t>
-  </si>
-  <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Calgary *</t>
-  </si>
-  <si>
-    <t>Lisbon *</t>
-  </si>
-  <si>
-    <t>Taipei</t>
-  </si>
-  <si>
-    <t>Canberra</t>
-  </si>
-  <si>
-    <t>London *</t>
-  </si>
-  <si>
-    <t>Tallinn *</t>
-  </si>
-  <si>
-    <t>Cape Town</t>
-  </si>
-  <si>
-    <t>10 °C</t>
-  </si>
-  <si>
-    <t>Los Angeles *</t>
-  </si>
-  <si>
-    <t>Tashkent</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
-    <t>Madrid *</t>
-  </si>
-  <si>
-    <t>Tegucigalpa</t>
-  </si>
-  <si>
-    <t>Casablanca *</t>
-  </si>
-  <si>
-    <t>Managua</t>
-  </si>
-  <si>
-    <t>Tehran</t>
-  </si>
-  <si>
-    <t>Mon 05:09</t>
-  </si>
-  <si>
-    <t>Chicago *</t>
-  </si>
-  <si>
-    <t>Manila</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Copenhagen *</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Toronto *</t>
-  </si>
-  <si>
-    <t>Dallas *</t>
-  </si>
-  <si>
-    <t>37 °C</t>
-  </si>
-  <si>
-    <t>Mexico City</t>
-  </si>
-  <si>
-    <t>Vancouver *</t>
-  </si>
-  <si>
-    <t>Dar es Salaam</t>
-  </si>
-  <si>
-    <t>Miami *</t>
-  </si>
-  <si>
-    <t>Vienna *</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>Minneapolis *</t>
-  </si>
-  <si>
-    <t>Warsaw *</t>
-  </si>
-  <si>
-    <t>Denver *</t>
-  </si>
-  <si>
-    <t>Minsk</t>
-  </si>
-  <si>
-    <t>Washington DC *</t>
-  </si>
-  <si>
-    <t>Detroit *</t>
-  </si>
-  <si>
-    <t>Montevideo</t>
-  </si>
-  <si>
-    <t>Winnipeg *</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>Montréal *</t>
-  </si>
-  <si>
-    <t>Yangon</t>
-  </si>
-  <si>
-    <t>Mon 08:09</t>
-  </si>
-  <si>
-    <t>Doha</t>
-  </si>
-  <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>Zagreb *</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>Mon 05:39</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Zürich *</t>
   </si>
 </sst>
 </file>
@@ -698,71 +692,71 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -790,41 +784,41 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -838,21 +832,21 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -860,27 +854,27 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -888,41 +882,41 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -930,7 +924,7 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -944,13 +938,13 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -972,13 +966,13 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -986,13 +980,13 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1006,49 +1000,49 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1056,55 +1050,55 @@
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -1112,105 +1106,105 @@
         <v>69</v>
       </c>
       <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
         <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1221,35 +1215,35 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
@@ -1258,567 +1252,567 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" t="s">
         <v>127</v>
       </c>
-      <c r="B79" t="s">
-        <v>128</v>
-      </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
         <v>130</v>
       </c>
-      <c r="B81" t="s">
-        <v>59</v>
-      </c>
       <c r="C81" t="s">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
@@ -1826,13 +1820,13 @@
         <v>134</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85">
@@ -1840,13 +1834,13 @@
         <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -1854,13 +1848,13 @@
         <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87">
@@ -1868,615 +1862,615 @@
         <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>184</v>
+      </c>
+      <c r="B130" t="s">
         <v>185</v>
       </c>
-      <c r="B130" t="s">
-        <v>15</v>
-      </c>
       <c r="C130" t="s">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131">
@@ -2484,13 +2478,13 @@
         <v>186</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
@@ -2498,13 +2492,13 @@
         <v>187</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133">
@@ -2512,13 +2506,13 @@
         <v>188</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
@@ -2526,13 +2520,13 @@
         <v>189</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135">
@@ -2540,32 +2534,32 @@
         <v>190</v>
       </c>
       <c r="B135" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" t="s">
         <v>192</v>
       </c>
-      <c r="B136" t="s">
-        <v>8</v>
-      </c>
       <c r="C136" t="s">
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -2579,16 +2573,16 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -2596,18 +2590,18 @@
         <v>195</v>
       </c>
       <c r="B139" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s">
         <v>24</v>
@@ -2616,21 +2610,21 @@
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
